--- a/00_Raw_Assests/quotes_noncsv.xlsx
+++ b/00_Raw_Assests/quotes_noncsv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://masseyhighschoolnz-my.sharepoint.com/personal/jeonw70450_masseyhigh_school_nz/Documents/Documents/COM301/Complex Database/Complex Database/Quotes_Database/00_Raw_Assests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{12E6D0B0-230E-B743-AE96-E6BA729E13A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{11F0F089-7893-43D9-83CC-7C72227E60A1}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{12E6D0B0-230E-B743-AE96-E6BA729E13A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A5A52291-2ADC-4763-9AF5-7A82B45DFE6A}"/>
   <bookViews>
-    <workbookView xWindow="15600" yWindow="4215" windowWidth="13200" windowHeight="11385" tabRatio="880" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="13200" windowHeight="11355" tabRatio="880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="332">
   <si>
     <t>misattributed-eleanor-roosevelt</t>
   </si>
@@ -1035,6 +1035,9 @@
   </si>
   <si>
     <t>Job_2ID</t>
+  </si>
+  <si>
+    <t>w</t>
   </si>
 </sst>
 </file>
@@ -1896,68 +1899,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>148</v>
       </c>
@@ -7958,8 +7966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19907EAC-9A71-FF47-AB6A-5A3BE72181CF}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
